--- a/backend/controllers/question/answer_files/answer_to_questionaire_9.xlsx
+++ b/backend/controllers/question/answer_files/answer_to_questionaire_9.xlsx
@@ -33,13 +33,13 @@
     <t>answerTime</t>
   </si>
   <si>
-    <t>11@qq.com</t>
-  </si>
-  <si>
-    <t>[{"question":"&lt;p&gt;&lt;span style=\"font-family: &amp;#39;Times New Roman&amp;#39;; font-size: 20px; line-height: 27px; background-color: rgb(255, 255, 255);\"&gt;請選擇您的性別。&lt;/span&gt;&lt;/p&gt;","answer":"Female 女"},{"question":"&lt;p&gt;&lt;span style=\"font-family: &amp;#39;Times New Roman&amp;#39;; font-size: 20px; line-height: 27px; background-color: rgb(255, 255, 255);\"&gt;請選擇您的年齡。&lt;/span&gt;&lt;/p&gt;","answer":"18 to 24 18 到 24"},{"question":"&lt;p&gt;&lt;span style=\"font-family: &amp;#39;Times New Roman&amp;#39;; font-size: 20px; line-height: 27px; background-color: rgb(255, 255, 255);\"&gt;請問您或跟您一起居住的家人中有沒有在以下行業工作？&lt;/span&gt;&lt;/p&gt;","answer":"Advertising 廣告公司/廣告設計"},{"question":"&lt;p&gt;&lt;span style=\"font-family: &amp;#39;Times New Roman&amp;#39;; font-size: 20px; line-height: 27px; background-color: rgb(255, 255, 255);\"&gt;請問您有多經常親自去超市或商店為您的家庭進行購物？&lt;/span&gt;&lt;/p&gt;","answer":"Almost all the time 幾乎每次都是我去選購"},{"question":"&lt;p&gt;&lt;span style=\"font-family: &amp;#39;Times New Roman&amp;#39;; font-size: 20px; line-height: 27px; background-color: rgb(255, 255, 255);\"&gt;您現在所使用的沐浴露，是否由您決定品牌的呢？&lt;/span&gt;&lt;/p&gt;","answer":"是"},{"question":"&lt;p&gt;&lt;span style=\"font-family: &amp;#39;Times New Roman&amp;#39;; font-size: 20px; line-height: 27px; background-color: rgb(255, 255, 255);\"&gt;請選出您聽過或看過的沐浴露/洗手液品牌。(可多項選擇)&lt;/span&gt;&lt;/p&gt;","answer":["Dove go fresh多芬go fresh"]},{"question":"&lt;p&gt;q7&lt;/p&gt;","answer":"b"},{"question":"&lt;p&gt;q8&lt;/p&gt;","answer":"a"}]</t>
-  </si>
-  <si>
-    <t>2017-01-05 15:12:40</t>
+    <t>22@qq.com</t>
+  </si>
+  <si>
+    <t>[{"question":"請選擇您的性別。","answer":"Female 女"},{"question":"請選擇您的年齡。","answer":"18 to 24 18 到 24"},{"question":"請問您或跟您一起居住的家人中有沒有在以下行業工作？","answer":"Advertising 廣告公司/廣告設計"},{"question":"請問您有多經常親自去超市或商店為您的家庭進行購物？","answer":"Almost all the time 幾乎每次都是我去選購"},{"question":"您現在所使用的沐浴露，是否由您決定品牌的呢？","answer":"是"},{"question":"請選出您聽過或看過的沐浴露/洗手液品牌。(可多項選擇)","answer":["Dove go fresh多芬go fresh","Lux 麗仕"]},{"question":"q7","answer":"b"},{"question":"q8","answer":"c"}]</t>
+  </si>
+  <si>
+    <t>2017-01-06 10:50:06</t>
   </si>
 </sst>
 </file>
